--- a/Tables/characteristics_informal.xlsx
+++ b/Tables/characteristics_informal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DB72E1-8D83-4A57-86E1-02B2C8492D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F64BB08-48F9-42CD-B437-3A171ABA28D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{B6A4BC25-E41E-4E4C-A75B-15F6BAF757E2}"/>
+    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B6A4BC25-E41E-4E4C-A75B-15F6BAF757E2}"/>
   </bookViews>
   <sheets>
     <sheet name="characteristics_informal_2" sheetId="2" r:id="rId1"/>
@@ -209,6 +209,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -216,9 +219,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1510,7 +1510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E1EC64-7382-455F-834B-4A14DB78668A}">
   <dimension ref="A2:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:L23"/>
     </sheetView>
   </sheetViews>
@@ -1529,53 +1529,53 @@
   <sheetData>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="H4" s="9" t="s">
+      <c r="F4" s="10"/>
+      <c r="H4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="K4" s="9" t="s">
+      <c r="I4" s="10"/>
+      <c r="K4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
@@ -2175,26 +2175,26 @@
       <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="11" t="str">
+      <c r="B21" s="8" t="str">
         <f>[1]Sheet1!H23</f>
         <v>0.220</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="E21" s="11" t="str">
+      <c r="C21" s="8"/>
+      <c r="E21" s="8" t="str">
         <f>[1]Sheet1!J23</f>
         <v>0.714</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="H21" s="11" t="str">
+      <c r="F21" s="8"/>
+      <c r="H21" s="8" t="str">
         <f>[1]Sheet1!L23</f>
         <v>0.0571</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="K21" s="11" t="str">
+      <c r="I21" s="8"/>
+      <c r="K21" s="8" t="str">
         <f>[1]Sheet1!N23</f>
         <v>0.639</v>
       </c>
-      <c r="L21" s="11"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -2296,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3194E4-4074-44F9-BAC3-0F6A9CADC43C}">
   <dimension ref="A2:Y24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2315,56 +2315,56 @@
   <sheetData>
     <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="11"/>
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="F3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="H4" s="9" t="s">
+      <c r="F4" s="10"/>
+      <c r="H4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="K4" s="9" t="s">
+      <c r="I4" s="10"/>
+      <c r="K4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="str">
@@ -2979,26 +2979,26 @@
         <f>[1]Sheet1!A23</f>
         <v>Dep var mean</v>
       </c>
-      <c r="B21" s="11" t="str">
+      <c r="B21" s="8" t="str">
         <f>[1]Sheet1!B23</f>
         <v>0.586</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="E21" s="11" t="str">
+      <c r="C21" s="8"/>
+      <c r="E21" s="8" t="str">
         <f>[1]Sheet1!P23</f>
         <v>0.953</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="H21" s="11" t="str">
+      <c r="F21" s="8"/>
+      <c r="H21" s="8" t="str">
         <f>[1]Sheet1!D23</f>
         <v>0.282</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="K21" s="11" t="str">
+      <c r="I21" s="8"/>
+      <c r="K21" s="8" t="str">
         <f>[1]Sheet1!F23</f>
         <v>0.278</v>
       </c>
-      <c r="L21" s="11"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
@@ -3082,11 +3082,6 @@
     <row r="24" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:L3"/>
@@ -3094,6 +3089,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
